--- a/braph2/workflows/Functional/example data FNC (fMRI)/xls/GroupName1/SubjectID2.xlsx
+++ b/braph2/workflows/Functional/example data FNC (fMRI)/xls/GroupName1/SubjectID2.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paego\Documents\GitHub\Braph-2.0-Matlab\braph2\workflows\Functional\example data FNC (fMRI)\xls\GroupName1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC546A8A-DD4E-4A68-A926-731B0EFAD113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>label2</t>
-  </si>
-  <si>
-    <t>notes2</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -47,2234 +47,2518 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J70"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true"/>
-    <col min="7" max="7" width="14.7109375" customWidth="true"/>
-    <col min="8" max="8" width="13.7109375" customWidth="true"/>
-    <col min="9" max="9" width="13.7109375" customWidth="true"/>
-    <col min="10" max="10" width="13.7109375" customWidth="true"/>
+    <col min="1" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0.85893881668386618</v>
+      </c>
+      <c r="B1">
+        <v>0.33209283345249907</v>
+      </c>
+      <c r="C1">
+        <v>0.36765291843787695</v>
+      </c>
+      <c r="D1">
+        <v>0.70322322455629105</v>
+      </c>
+      <c r="E1">
+        <v>0.54088408124147647</v>
+      </c>
+      <c r="F1">
+        <v>4.5051107473574215E-2</v>
+      </c>
+      <c r="G1">
+        <v>0.88654386176030631</v>
+      </c>
+      <c r="H1">
+        <v>0.3224603973622594</v>
+      </c>
+      <c r="I1">
+        <v>9.4278390064146067E-2</v>
+      </c>
+      <c r="J1">
+        <v>0.20677645793510502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.78555898926503054</v>
+      </c>
+      <c r="B2">
+        <v>0.29734681588792167</v>
+      </c>
+      <c r="C2">
+        <v>0.20602785950519464</v>
+      </c>
+      <c r="D2">
+        <v>0.55573794271938659</v>
+      </c>
+      <c r="E2">
+        <v>0.67973389821046692</v>
+      </c>
+      <c r="F2">
+        <v>0.72317347918309527</v>
+      </c>
+      <c r="G2">
+        <v>0.45469486499190781</v>
+      </c>
+      <c r="H2">
+        <v>0.55226161685835495</v>
+      </c>
+      <c r="I2">
+        <v>0.93004062610748905</v>
+      </c>
+      <c r="J2">
+        <v>0.65385059206258811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.85893881668386618</v>
+        <v>0.51337741858757491</v>
       </c>
       <c r="B3">
-        <v>0.33209283345249907</v>
+        <v>6.2045221319632637E-2</v>
       </c>
       <c r="C3">
-        <v>0.36765291843787695</v>
+        <v>8.6666547395532256E-2</v>
       </c>
       <c r="D3">
-        <v>0.70322322455629105</v>
+        <v>0.18443366775765324</v>
       </c>
       <c r="E3">
-        <v>0.54088408124147647</v>
+        <v>3.6563018048452856E-2</v>
       </c>
       <c r="F3">
-        <v>0.045051107473574215</v>
+        <v>0.34743764558179013</v>
       </c>
       <c r="G3">
-        <v>0.88654386176030631</v>
+        <v>0.41342728902081527</v>
       </c>
       <c r="H3">
-        <v>0.3224603973622594</v>
+        <v>0.9791291324338921</v>
       </c>
       <c r="I3">
-        <v>0.094278390064146067</v>
+        <v>0.3990199690345555</v>
       </c>
       <c r="J3">
-        <v>0.20677645793510502</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>7.2051551220649879E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.78555898926503054</v>
+        <v>0.17760246050586503</v>
       </c>
       <c r="B4">
-        <v>0.29734681588792167</v>
+        <v>0.29824397188776386</v>
       </c>
       <c r="C4">
-        <v>0.20602785950519464</v>
+        <v>0.7719339170991073</v>
       </c>
       <c r="D4">
-        <v>0.55573794271938659</v>
+        <v>0.21203084253232074</v>
       </c>
       <c r="E4">
-        <v>0.67973389821046692</v>
+        <v>0.80920385129379335</v>
       </c>
       <c r="F4">
-        <v>0.72317347918309527</v>
+        <v>0.66061682450290382</v>
       </c>
       <c r="G4">
-        <v>0.45469486499190781</v>
+        <v>0.21773206835730041</v>
       </c>
       <c r="H4">
-        <v>0.55226161685835495</v>
+        <v>0.54930853301830274</v>
       </c>
       <c r="I4">
-        <v>0.93004062610748905</v>
+        <v>4.7401462029150743E-2</v>
       </c>
       <c r="J4">
-        <v>0.65385059206258811</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.40672691508936376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.51337741858757491</v>
+        <v>0.3985894967358431</v>
       </c>
       <c r="B5">
-        <v>0.062045221319632637</v>
+        <v>4.6351264898180755E-2</v>
       </c>
       <c r="C5">
-        <v>0.086666547395532256</v>
+        <v>0.20567452146475984</v>
       </c>
       <c r="D5">
-        <v>0.18443366775765324</v>
+        <v>7.7346808112676801E-2</v>
       </c>
       <c r="E5">
-        <v>0.036563018048452856</v>
+        <v>0.74861887177619713</v>
       </c>
       <c r="F5">
-        <v>0.34743764558179013</v>
+        <v>0.3838686010719714</v>
       </c>
       <c r="G5">
-        <v>0.41342728902081527</v>
+        <v>0.12565458736262625</v>
       </c>
       <c r="H5">
-        <v>0.9791291324338921</v>
+        <v>0.33042360960660278</v>
       </c>
       <c r="I5">
-        <v>0.3990199690345555</v>
+        <v>0.34237350316073978</v>
       </c>
       <c r="J5">
-        <v>0.072051551220649879</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.66693153320749865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.17760246050586503</v>
+        <v>0.13393125098797121</v>
       </c>
       <c r="B6">
-        <v>0.29824397188776386</v>
+        <v>0.50542814245770296</v>
       </c>
       <c r="C6">
-        <v>0.7719339170991073</v>
+        <v>0.38827163104780171</v>
       </c>
       <c r="D6">
-        <v>0.21203084253232074</v>
+        <v>0.91380041077956786</v>
       </c>
       <c r="E6">
-        <v>0.80920385129379335</v>
+        <v>0.12018701798708065</v>
       </c>
       <c r="F6">
-        <v>0.66061682450290382</v>
+        <v>0.62734650244346701</v>
       </c>
       <c r="G6">
-        <v>0.21773206835730041</v>
+        <v>0.30891459356681528</v>
       </c>
       <c r="H6">
-        <v>0.54930853301830274</v>
+        <v>0.61947155517777985</v>
       </c>
       <c r="I6">
-        <v>0.047401462029150743</v>
+        <v>0.73596615888016415</v>
       </c>
       <c r="J6">
-        <v>0.40672691508936376</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.93372565954592968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.3985894967358431</v>
+        <v>3.0889548744951534E-2</v>
       </c>
       <c r="B7">
-        <v>0.046351264898180755</v>
+        <v>0.76142588669011335</v>
       </c>
       <c r="C7">
-        <v>0.20567452146475984</v>
+        <v>0.55177853195722748</v>
       </c>
       <c r="D7">
-        <v>0.077346808112676801</v>
+        <v>0.70671521769693058</v>
       </c>
       <c r="E7">
-        <v>0.74861887177619713</v>
+        <v>0.52504516476260876</v>
       </c>
       <c r="F7">
-        <v>0.3838686010719714</v>
+        <v>2.1649814630306463E-2</v>
       </c>
       <c r="G7">
-        <v>0.12565458736262625</v>
+        <v>0.72610443166483185</v>
       </c>
       <c r="H7">
-        <v>0.33042360960660278</v>
+        <v>0.3606365710022027</v>
       </c>
       <c r="I7">
-        <v>0.34237350316073978</v>
+        <v>0.79468215733380521</v>
       </c>
       <c r="J7">
-        <v>0.66693153320749865</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.81095003223826512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.13393125098797121</v>
+        <v>0.93914170606954794</v>
       </c>
       <c r="B8">
-        <v>0.50542814245770296</v>
+        <v>0.63106999921359352</v>
       </c>
       <c r="C8">
-        <v>0.38827163104780171</v>
+        <v>0.22895325202310002</v>
       </c>
       <c r="D8">
-        <v>0.91380041077956786</v>
+        <v>0.55778896675487621</v>
       </c>
       <c r="E8">
-        <v>0.12018701798708065</v>
+        <v>0.32583362876324917</v>
       </c>
       <c r="F8">
-        <v>0.62734650244346701</v>
+        <v>0.91056998852302851</v>
       </c>
       <c r="G8">
-        <v>0.30891459356681528</v>
+        <v>0.7828720729791232</v>
       </c>
       <c r="H8">
-        <v>0.61947155517777985</v>
+        <v>0.75650954350194433</v>
       </c>
       <c r="I8">
-        <v>0.73596615888016415</v>
+        <v>0.5449058982446715</v>
       </c>
       <c r="J8">
-        <v>0.93372565954592968</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.48454827183499039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.030889548744951534</v>
+        <v>0.3013060645863922</v>
       </c>
       <c r="B9">
-        <v>0.76142588669011335</v>
+        <v>8.9891650776091736E-2</v>
       </c>
       <c r="C9">
-        <v>0.55177853195722748</v>
+        <v>0.64194062039918731</v>
       </c>
       <c r="D9">
-        <v>0.70671521769693058</v>
+        <v>0.3134289899365913</v>
       </c>
       <c r="E9">
-        <v>0.52504516476260876</v>
+        <v>0.54644943990306849</v>
       </c>
       <c r="F9">
-        <v>0.021649814630306463</v>
+        <v>0.80055865627881106</v>
       </c>
       <c r="G9">
-        <v>0.72610443166483185</v>
+        <v>0.69378761498689723</v>
       </c>
       <c r="H9">
-        <v>0.3606365710022027</v>
+        <v>0.41390074869018967</v>
       </c>
       <c r="I9">
-        <v>0.79468215733380521</v>
+        <v>0.68622346298404091</v>
       </c>
       <c r="J9">
-        <v>0.81095003223826512</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.75674921006551221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.93914170606954794</v>
+        <v>0.29553383447535642</v>
       </c>
       <c r="B10">
-        <v>0.63106999921359352</v>
+        <v>8.0862423130313665E-2</v>
       </c>
       <c r="C10">
-        <v>0.22895325202310002</v>
+        <v>0.48448037239818043</v>
       </c>
       <c r="D10">
-        <v>0.55778896675487621</v>
+        <v>0.16620356290215066</v>
       </c>
       <c r="E10">
-        <v>0.32583362876324917</v>
+        <v>0.39888075238319898</v>
       </c>
       <c r="F10">
-        <v>0.91056998852302851</v>
+        <v>0.74584748434272119</v>
       </c>
       <c r="G10">
-        <v>0.7828720729791232</v>
+        <v>9.8022522630620834E-3</v>
       </c>
       <c r="H10">
-        <v>0.75650954350194433</v>
+        <v>0.49234510438493773</v>
       </c>
       <c r="I10">
-        <v>0.5449058982446715</v>
+        <v>0.89363269593360162</v>
       </c>
       <c r="J10">
-        <v>0.48454827183499039</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.41704745374276697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.3013060645863922</v>
+        <v>0.3329362818361753</v>
       </c>
       <c r="B11">
-        <v>0.089891650776091736</v>
+        <v>0.77724053654894321</v>
       </c>
       <c r="C11">
-        <v>0.64194062039918731</v>
+        <v>0.15184552511626659</v>
       </c>
       <c r="D11">
-        <v>0.3134289899365913</v>
+        <v>0.62249725927989519</v>
       </c>
       <c r="E11">
-        <v>0.54644943990306849</v>
+        <v>0.41509338661304662</v>
       </c>
       <c r="F11">
-        <v>0.80055865627881106</v>
+        <v>0.81311281361076071</v>
       </c>
       <c r="G11">
-        <v>0.69378761498689723</v>
+        <v>0.84321333801050957</v>
       </c>
       <c r="H11">
-        <v>0.41390074869018967</v>
+        <v>0.69474323313261011</v>
       </c>
       <c r="I11">
-        <v>0.68622346298404091</v>
+        <v>5.4791789919732437E-2</v>
       </c>
       <c r="J11">
-        <v>0.75674921006551221</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.97178599298929402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.29553383447535642</v>
+        <v>0.46706818702885244</v>
       </c>
       <c r="B12">
-        <v>0.080862423130313665</v>
+        <v>0.90513474422357088</v>
       </c>
       <c r="C12">
-        <v>0.48448037239818043</v>
+        <v>0.7819319665880019</v>
       </c>
       <c r="D12">
-        <v>0.16620356290215066</v>
+        <v>0.9879347349524954</v>
       </c>
       <c r="E12">
-        <v>0.39888075238319898</v>
+        <v>0.18073776025479438</v>
       </c>
       <c r="F12">
-        <v>0.74584748434272119</v>
+        <v>0.38330631862552922</v>
       </c>
       <c r="G12">
-        <v>0.0098022522630620834</v>
+        <v>0.92233199779627573</v>
       </c>
       <c r="H12">
-        <v>0.49234510438493773</v>
+        <v>0.97273388507978409</v>
       </c>
       <c r="I12">
-        <v>0.89363269593360162</v>
+        <v>0.3036613797170159</v>
       </c>
       <c r="J12">
-        <v>0.41704745374276697</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.98797470123083198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.3329362818361753</v>
+        <v>0.64819840646615712</v>
       </c>
       <c r="B13">
-        <v>0.77724053654894321</v>
+        <v>0.53377195176700021</v>
       </c>
       <c r="C13">
-        <v>0.15184552511626659</v>
+        <v>0.10060632236242151</v>
       </c>
       <c r="D13">
-        <v>0.62249725927989519</v>
+        <v>0.17043202305688332</v>
       </c>
       <c r="E13">
-        <v>0.41509338661304662</v>
+        <v>0.25538674048805077</v>
       </c>
       <c r="F13">
-        <v>0.81311281361076071</v>
+        <v>0.61727923231644921</v>
       </c>
       <c r="G13">
-        <v>0.84321333801050957</v>
+        <v>0.7709542206739245</v>
       </c>
       <c r="H13">
-        <v>0.69474323313261011</v>
+        <v>0.3277549604934068</v>
       </c>
       <c r="I13">
-        <v>0.054791789919732437</v>
+        <v>4.6191556331547812E-2</v>
       </c>
       <c r="J13">
-        <v>0.97178599298929402</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.86414752903120273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.46706818702885244</v>
+        <v>2.5228181493036295E-2</v>
       </c>
       <c r="B14">
-        <v>0.90513474422357088</v>
+        <v>0.10915421204245856</v>
       </c>
       <c r="C14">
-        <v>0.7819319665880019</v>
+        <v>0.29406633375862845</v>
       </c>
       <c r="D14">
-        <v>0.9879347349524954</v>
+        <v>0.25779225057201305</v>
       </c>
       <c r="E14">
-        <v>0.18073776025479438</v>
+        <v>2.0535774658184569E-2</v>
       </c>
       <c r="F14">
-        <v>0.38330631862552922</v>
+        <v>0.57549485970281389</v>
       </c>
       <c r="G14">
-        <v>0.92233199779627573</v>
+        <v>4.2659855935048729E-2</v>
       </c>
       <c r="H14">
-        <v>0.97273388507978409</v>
+        <v>0.8378031830785756</v>
       </c>
       <c r="I14">
-        <v>0.3036613797170159</v>
+        <v>0.1954767636337984</v>
       </c>
       <c r="J14">
-        <v>0.98797470123083198</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.38888377591242851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.64819840646615712</v>
+        <v>0.84220661241933448</v>
       </c>
       <c r="B15">
-        <v>0.53377195176700021</v>
+        <v>0.82580885785559832</v>
       </c>
       <c r="C15">
-        <v>0.10060632236242151</v>
+        <v>0.23737301970557922</v>
       </c>
       <c r="D15">
-        <v>0.17043202305688332</v>
+        <v>0.39679931863314366</v>
       </c>
       <c r="E15">
-        <v>0.25538674048805077</v>
+        <v>0.9236756126204072</v>
       </c>
       <c r="F15">
-        <v>0.61727923231644921</v>
+        <v>0.53005170476501562</v>
       </c>
       <c r="G15">
-        <v>0.7709542206739245</v>
+        <v>0.37818613705021886</v>
       </c>
       <c r="H15">
-        <v>0.3277549604934068</v>
+        <v>0.73907222727352806</v>
       </c>
       <c r="I15">
-        <v>0.046191556331547812</v>
+        <v>0.72016580251652562</v>
       </c>
       <c r="J15">
-        <v>0.86414752903120273</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0.45474182803911178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.025228181493036295</v>
+        <v>0.55903254498869503</v>
       </c>
       <c r="B16">
-        <v>0.10915421204245856</v>
+        <v>0.33809771880217188</v>
       </c>
       <c r="C16">
-        <v>0.29406633375862845</v>
+        <v>0.5308722570279284</v>
       </c>
       <c r="D16">
-        <v>0.25779225057201305</v>
+        <v>7.3994769576937958E-2</v>
       </c>
       <c r="E16">
-        <v>0.020535774658184569</v>
+        <v>0.65369988900825293</v>
       </c>
       <c r="F16">
-        <v>0.57549485970281389</v>
+        <v>0.27506975582193505</v>
       </c>
       <c r="G16">
-        <v>0.042659855935048729</v>
+        <v>0.70433962448336762</v>
       </c>
       <c r="H16">
-        <v>0.8378031830785756</v>
+        <v>0.95417445637954312</v>
       </c>
       <c r="I16">
-        <v>0.1954767636337984</v>
+        <v>0.72175327349929674</v>
       </c>
       <c r="J16">
-        <v>0.38888377591242851</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.24668719763807923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.84220661241933448</v>
+        <v>0.85409994927344313</v>
       </c>
       <c r="B17">
-        <v>0.82580885785559832</v>
+        <v>0.29397305302648402</v>
       </c>
       <c r="C17">
-        <v>0.23737301970557922</v>
+        <v>9.149873133941222E-2</v>
       </c>
       <c r="D17">
-        <v>0.39679931863314366</v>
+        <v>0.68409606696200898</v>
       </c>
       <c r="E17">
-        <v>0.9236756126204072</v>
+        <v>0.9326135720485641</v>
       </c>
       <c r="F17">
-        <v>0.53005170476501562</v>
+        <v>0.24862895966197041</v>
       </c>
       <c r="G17">
-        <v>0.37818613705021886</v>
+        <v>0.72951304550464691</v>
       </c>
       <c r="H17">
-        <v>0.73907222727352806</v>
+        <v>3.1922629503978395E-2</v>
       </c>
       <c r="I17">
-        <v>0.72016580251652562</v>
+        <v>0.87779907115152722</v>
       </c>
       <c r="J17">
-        <v>0.45474182803911178</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.78442309302417712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.55903254498869503</v>
+        <v>0.34787919432726111</v>
       </c>
       <c r="B18">
-        <v>0.33809771880217188</v>
+        <v>0.74631342770367937</v>
       </c>
       <c r="C18">
-        <v>0.5308722570279284</v>
+        <v>0.40531541988059128</v>
       </c>
       <c r="D18">
-        <v>0.073994769576937958</v>
+        <v>0.40238833269616192</v>
       </c>
       <c r="E18">
-        <v>0.65369988900825293</v>
+        <v>0.1635123685275256</v>
       </c>
       <c r="F18">
-        <v>0.27506975582193505</v>
+        <v>0.45163877045197276</v>
       </c>
       <c r="G18">
-        <v>0.70433962448336762</v>
+        <v>0.22427707066451441</v>
       </c>
       <c r="H18">
-        <v>0.95417445637954312</v>
+        <v>0.35686898618254204</v>
       </c>
       <c r="I18">
-        <v>0.72175327349929674</v>
+        <v>0.58243296448741033</v>
       </c>
       <c r="J18">
-        <v>0.24668719763807923</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.88283760558305246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.85409994927344313</v>
+        <v>0.44602664805510284</v>
       </c>
       <c r="B19">
-        <v>0.29397305302648402</v>
+        <v>1.0336618343396387E-2</v>
       </c>
       <c r="C19">
-        <v>0.09149873133941222</v>
+        <v>0.10484624711575652</v>
       </c>
       <c r="D19">
-        <v>0.68409606696200898</v>
+        <v>0.98283520139395097</v>
       </c>
       <c r="E19">
-        <v>0.9326135720485641</v>
+        <v>0.92109725589219749</v>
       </c>
       <c r="F19">
-        <v>0.24862895966197041</v>
+        <v>0.22771282602654763</v>
       </c>
       <c r="G19">
-        <v>0.72951304550464691</v>
+        <v>0.26905473177336503</v>
       </c>
       <c r="H19">
-        <v>0.031922629503978395</v>
+        <v>0.66265383428721447</v>
       </c>
       <c r="I19">
-        <v>0.87779907115152722</v>
+        <v>7.0684335386649977E-2</v>
       </c>
       <c r="J19">
-        <v>0.78442309302417712</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.91371168129301816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.34787919432726111</v>
+        <v>5.4239484441129582E-2</v>
       </c>
       <c r="B20">
-        <v>0.74631342770367937</v>
+        <v>4.8447339253222088E-2</v>
       </c>
       <c r="C20">
-        <v>0.40531541988059128</v>
+        <v>0.11228396215602665</v>
       </c>
       <c r="D20">
-        <v>0.40238833269616192</v>
+        <v>0.40218398522248466</v>
       </c>
       <c r="E20">
-        <v>0.1635123685275256</v>
+        <v>0.79465788538875315</v>
       </c>
       <c r="F20">
-        <v>0.45163877045197276</v>
+        <v>0.80444958361307006</v>
       </c>
       <c r="G20">
-        <v>0.22427707066451441</v>
+        <v>0.67303116500411897</v>
       </c>
       <c r="H20">
-        <v>0.35686898618254204</v>
+        <v>0.28150155914849062</v>
       </c>
       <c r="I20">
-        <v>0.58243296448741033</v>
+        <v>0.92274457018909217</v>
       </c>
       <c r="J20">
-        <v>0.88283760558305246</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0.558284923622275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.44602664805510284</v>
+        <v>0.17710753378910915</v>
       </c>
       <c r="B21">
-        <v>0.010336618343396387</v>
+        <v>0.66791612157362368</v>
       </c>
       <c r="C21">
-        <v>0.10484624711575652</v>
+        <v>0.78442789074391273</v>
       </c>
       <c r="D21">
-        <v>0.98283520139395097</v>
+        <v>0.62067194719957841</v>
       </c>
       <c r="E21">
-        <v>0.92109725589219749</v>
+        <v>0.57739419670664871</v>
       </c>
       <c r="F21">
-        <v>0.22771282602654763</v>
+        <v>0.98610424189597012</v>
       </c>
       <c r="G21">
-        <v>0.26905473177336503</v>
+        <v>0.47749219772686124</v>
       </c>
       <c r="H21">
-        <v>0.66265383428721447</v>
+        <v>0.23038306731746372</v>
       </c>
       <c r="I21">
-        <v>0.070684335386649977</v>
+        <v>0.80037209235110707</v>
       </c>
       <c r="J21">
-        <v>0.91371168129301816</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.59886810274620539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.054239484441129582</v>
+        <v>0.66280806196097442</v>
       </c>
       <c r="B22">
-        <v>0.048447339253222088</v>
+        <v>0.60346798383076949</v>
       </c>
       <c r="C22">
-        <v>0.11228396215602665</v>
+        <v>0.29157031790693089</v>
       </c>
       <c r="D22">
-        <v>0.40218398522248466</v>
+        <v>0.15436980547927237</v>
       </c>
       <c r="E22">
-        <v>0.79465788538875315</v>
+        <v>0.44003559576025364</v>
       </c>
       <c r="F22">
-        <v>0.80444958361307006</v>
+        <v>2.9991950269389944E-2</v>
       </c>
       <c r="G22">
-        <v>0.67303116500411897</v>
+        <v>0.62371641266744249</v>
       </c>
       <c r="H22">
-        <v>0.28150155914849062</v>
+        <v>0.71112855118032514</v>
       </c>
       <c r="I22">
-        <v>0.92274457018909217</v>
+        <v>0.28594685642036322</v>
       </c>
       <c r="J22">
-        <v>0.558284923622275</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.14887672033754906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.17710753378910915</v>
+        <v>0.33082899520330455</v>
       </c>
       <c r="B23">
-        <v>0.66791612157362368</v>
+        <v>0.52610246579556119</v>
       </c>
       <c r="C23">
-        <v>0.78442789074391273</v>
+        <v>0.60353343875088683</v>
       </c>
       <c r="D23">
-        <v>0.62067194719957841</v>
+        <v>0.38134520444447195</v>
       </c>
       <c r="E23">
-        <v>0.57739419670664871</v>
+        <v>0.2576137367124377</v>
       </c>
       <c r="F23">
-        <v>0.98610424189597012</v>
+        <v>0.53566419066723769</v>
       </c>
       <c r="G23">
-        <v>0.47749219772686124</v>
+        <v>0.23644493264091038</v>
       </c>
       <c r="H23">
-        <v>0.23038306731746372</v>
+        <v>0.62457291699330852</v>
       </c>
       <c r="I23">
-        <v>0.80037209235110707</v>
+        <v>0.54366323284136187</v>
       </c>
       <c r="J23">
-        <v>0.59886810274620539</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0.89971348453573852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.66280806196097442</v>
+        <v>0.89848613783429954</v>
       </c>
       <c r="B24">
-        <v>0.60346798383076949</v>
+        <v>0.7297094482232277</v>
       </c>
       <c r="C24">
-        <v>0.29157031790693089</v>
+        <v>0.96442266721590131</v>
       </c>
       <c r="D24">
-        <v>0.15436980547927237</v>
+        <v>0.16113397184936085</v>
       </c>
       <c r="E24">
-        <v>0.44003559576025364</v>
+        <v>0.75194639386744999</v>
       </c>
       <c r="F24">
-        <v>0.029991950269389944</v>
+        <v>8.7077219900892344E-2</v>
       </c>
       <c r="G24">
-        <v>0.62371641266744249</v>
+        <v>0.17712375449831652</v>
       </c>
       <c r="H24">
-        <v>0.71112855118032514</v>
+        <v>0.59060865291963593</v>
       </c>
       <c r="I24">
-        <v>0.28594685642036322</v>
+        <v>0.98477623697060979</v>
       </c>
       <c r="J24">
-        <v>0.14887672033754906</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0.45039358065211554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.33082899520330455</v>
+        <v>0.11815519844671063</v>
       </c>
       <c r="B25">
-        <v>0.52610246579556119</v>
+        <v>0.70725348531542154</v>
       </c>
       <c r="C25">
-        <v>0.60353343875088683</v>
+        <v>0.432484993970361</v>
       </c>
       <c r="D25">
-        <v>0.38134520444447195</v>
+        <v>0.75811243132741857</v>
       </c>
       <c r="E25">
-        <v>0.2576137367124377</v>
+        <v>0.22866948210550142</v>
       </c>
       <c r="F25">
-        <v>0.53566419066723769</v>
+        <v>0.80209144055580395</v>
       </c>
       <c r="G25">
-        <v>0.23644493264091038</v>
+        <v>0.82964338569758456</v>
       </c>
       <c r="H25">
-        <v>0.62457291699330852</v>
+        <v>0.66043796631260188</v>
       </c>
       <c r="I25">
-        <v>0.54366323284136187</v>
+        <v>0.71567806712662152</v>
       </c>
       <c r="J25">
-        <v>0.89971348453573852</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0.20567233946396346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.89848613783429954</v>
+        <v>0.98841792878498058</v>
       </c>
       <c r="B26">
-        <v>0.7297094482232277</v>
+        <v>0.78137705179927719</v>
       </c>
       <c r="C26">
-        <v>0.96442266721590131</v>
+        <v>0.69475219461794013</v>
       </c>
       <c r="D26">
-        <v>0.16113397184936085</v>
+        <v>0.8711111219153892</v>
       </c>
       <c r="E26">
-        <v>0.75194639386744999</v>
+        <v>6.4187087391898601E-2</v>
       </c>
       <c r="F26">
-        <v>0.087077219900892344</v>
+        <v>0.98914490970033997</v>
       </c>
       <c r="G26">
-        <v>0.17712375449831652</v>
+        <v>0.76692166793526484</v>
       </c>
       <c r="H26">
-        <v>0.59060865291963593</v>
+        <v>4.7554673113866075E-2</v>
       </c>
       <c r="I26">
-        <v>0.98477623697060979</v>
+        <v>0.83896959733000021</v>
       </c>
       <c r="J26">
-        <v>0.45039358065211554</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0.89965099050908082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.11815519844671063</v>
+        <v>0.53998209903792915</v>
       </c>
       <c r="B27">
-        <v>0.70725348531542154</v>
+        <v>0.28797697561417124</v>
       </c>
       <c r="C27">
-        <v>0.432484993970361</v>
+        <v>0.75809927528945409</v>
       </c>
       <c r="D27">
-        <v>0.75811243132741857</v>
+        <v>0.35077674488589261</v>
       </c>
       <c r="E27">
-        <v>0.22866948210550142</v>
+        <v>0.76732951077657441</v>
       </c>
       <c r="F27">
-        <v>0.80209144055580395</v>
+        <v>6.6946258397750147E-2</v>
       </c>
       <c r="G27">
-        <v>0.82964338569758456</v>
+        <v>0.93447827311826959</v>
       </c>
       <c r="H27">
-        <v>0.66043796631260188</v>
+        <v>0.34878480851005889</v>
       </c>
       <c r="I27">
-        <v>0.71567806712662152</v>
+        <v>0.4332605610079483</v>
       </c>
       <c r="J27">
-        <v>0.20567233946396346</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0.76258553937322693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.98841792878498058</v>
+        <v>0.70691741932276275</v>
       </c>
       <c r="B28">
-        <v>0.78137705179927719</v>
+        <v>0.69253198638651881</v>
       </c>
       <c r="C28">
-        <v>0.69475219461794013</v>
+        <v>0.43264232614710052</v>
       </c>
       <c r="D28">
-        <v>0.8711111219153892</v>
+        <v>0.68553570874753722</v>
       </c>
       <c r="E28">
-        <v>0.064187087391898601</v>
+        <v>0.67120218535653553</v>
       </c>
       <c r="F28">
-        <v>0.98914490970033997</v>
+        <v>0.93939836188453485</v>
       </c>
       <c r="G28">
-        <v>0.76692166793526484</v>
+        <v>0.10788890508436355</v>
       </c>
       <c r="H28">
-        <v>0.047554673113866075</v>
+        <v>0.4513405803557432</v>
       </c>
       <c r="I28">
-        <v>0.83896959733000021</v>
+        <v>0.47062471560654073</v>
       </c>
       <c r="J28">
-        <v>0.89965099050908082</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0.88248630740029799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.53998209903792915</v>
+        <v>0.99949162009770465</v>
       </c>
       <c r="B29">
-        <v>0.28797697561417124</v>
+        <v>0.55666983496401257</v>
       </c>
       <c r="C29">
-        <v>0.75809927528945409</v>
+        <v>0.65549803980353738</v>
       </c>
       <c r="D29">
-        <v>0.35077674488589261</v>
+        <v>0.29414863376784961</v>
       </c>
       <c r="E29">
-        <v>0.76732951077657441</v>
+        <v>0.71521251478584014</v>
       </c>
       <c r="F29">
-        <v>0.066946258397750147</v>
+        <v>1.817753363669572E-2</v>
       </c>
       <c r="G29">
-        <v>0.93447827311826959</v>
+        <v>0.18222750560105572</v>
       </c>
       <c r="H29">
-        <v>0.34878480851005889</v>
+        <v>0.24090499712011071</v>
       </c>
       <c r="I29">
-        <v>0.4332605610079483</v>
+        <v>0.56071341104455608</v>
       </c>
       <c r="J29">
-        <v>0.76258553937322693</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0.28495021802482123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.70691741932276275</v>
+        <v>0.28784934481513724</v>
       </c>
       <c r="B30">
-        <v>0.69253198638651881</v>
+        <v>0.39652079258159256</v>
       </c>
       <c r="C30">
-        <v>0.43264232614710052</v>
+        <v>0.10975505072305158</v>
       </c>
       <c r="D30">
-        <v>0.68553570874753722</v>
+        <v>0.53062930385688556</v>
       </c>
       <c r="E30">
-        <v>0.67120218535653553</v>
+        <v>0.64206082843385226</v>
       </c>
       <c r="F30">
-        <v>0.93939836188453485</v>
+        <v>0.68383861374635535</v>
       </c>
       <c r="G30">
-        <v>0.10788890508436355</v>
+        <v>9.9095282422458464E-2</v>
       </c>
       <c r="H30">
-        <v>0.4513405803557432</v>
+        <v>0.71504501329617653</v>
       </c>
       <c r="I30">
-        <v>0.47062471560654073</v>
+        <v>0.26909154353099751</v>
       </c>
       <c r="J30">
-        <v>0.88248630740029799</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0.67322598645225773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.99949162009770465</v>
+        <v>0.41452253889310842</v>
       </c>
       <c r="B31">
-        <v>0.55666983496401257</v>
+        <v>6.1590667053964654E-2</v>
       </c>
       <c r="C31">
-        <v>0.65549803980353738</v>
+        <v>0.93375984838533244</v>
       </c>
       <c r="D31">
-        <v>0.29414863376784961</v>
+        <v>0.83242338628518386</v>
       </c>
       <c r="E31">
-        <v>0.71521251478584014</v>
+        <v>0.41904829362488305</v>
       </c>
       <c r="F31">
-        <v>0.01817753363669572</v>
+        <v>0.78373648008321861</v>
       </c>
       <c r="G31">
-        <v>0.18222750560105572</v>
+        <v>0.48976380192344693</v>
       </c>
       <c r="H31">
-        <v>0.24090499712011071</v>
+        <v>0.85618229200628793</v>
       </c>
       <c r="I31">
-        <v>0.56071341104455608</v>
+        <v>0.74901846764194613</v>
       </c>
       <c r="J31">
-        <v>0.28495021802482123</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0.66427990441805074</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.28784934481513724</v>
+        <v>0.46483994162513731</v>
       </c>
       <c r="B32">
-        <v>0.39652079258159256</v>
+        <v>0.78017553149117358</v>
       </c>
       <c r="C32">
-        <v>0.10975505072305158</v>
+        <v>0.1874608064216865</v>
       </c>
       <c r="D32">
-        <v>0.53062930385688556</v>
+        <v>0.59749019187257935</v>
       </c>
       <c r="E32">
-        <v>0.64206082843385226</v>
+        <v>0.39076208220417452</v>
       </c>
       <c r="F32">
-        <v>0.68383861374635535</v>
+        <v>0.53413756788272826</v>
       </c>
       <c r="G32">
-        <v>0.099095282422458464</v>
+        <v>0.19324533046887049</v>
       </c>
       <c r="H32">
-        <v>0.71504501329617653</v>
+        <v>0.28150769511855334</v>
       </c>
       <c r="I32">
-        <v>0.26909154353099751</v>
+        <v>0.50388777346048863</v>
       </c>
       <c r="J32">
-        <v>0.67322598645225773</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0.12281499389952588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.41452253889310842</v>
+        <v>0.7639570784919566</v>
       </c>
       <c r="B33">
-        <v>0.061590667053964654</v>
+        <v>0.3375838640520451</v>
       </c>
       <c r="C33">
-        <v>0.93375984838533244</v>
+        <v>0.26617883890763883</v>
       </c>
       <c r="D33">
-        <v>0.83242338628518386</v>
+        <v>0.3353113307052461</v>
       </c>
       <c r="E33">
-        <v>0.41904829362488305</v>
+        <v>0.81614010287532268</v>
       </c>
       <c r="F33">
-        <v>0.78373648008321861</v>
+        <v>0.88535945093114177</v>
       </c>
       <c r="G33">
-        <v>0.48976380192344693</v>
+        <v>0.89589157379256823</v>
       </c>
       <c r="H33">
-        <v>0.85618229200628793</v>
+        <v>0.73105082972374147</v>
       </c>
       <c r="I33">
-        <v>0.74901846764194613</v>
+        <v>0.64680966627278047</v>
       </c>
       <c r="J33">
-        <v>0.66427990441805074</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0.40731842305681287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.46483994162513731</v>
+        <v>0.81820403890767079</v>
       </c>
       <c r="B34">
-        <v>0.78017553149117358</v>
+        <v>0.60786590726294576</v>
       </c>
       <c r="C34">
-        <v>0.1874608064216865</v>
+        <v>0.79783026021159709</v>
       </c>
       <c r="D34">
-        <v>0.59749019187257935</v>
+        <v>0.29922502333310663</v>
       </c>
       <c r="E34">
-        <v>0.39076208220417452</v>
+        <v>0.31742786365584963</v>
       </c>
       <c r="F34">
-        <v>0.53413756788272826</v>
+        <v>0.8990048989061401</v>
       </c>
       <c r="G34">
-        <v>0.19324533046887049</v>
+        <v>9.9089649681814551E-2</v>
       </c>
       <c r="H34">
-        <v>0.28150769511855334</v>
+        <v>0.13776289251951634</v>
       </c>
       <c r="I34">
-        <v>0.50388777346048863</v>
+        <v>0.30774558203094071</v>
       </c>
       <c r="J34">
-        <v>0.12281499389952588</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0.27528695131569003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.7639570784919566</v>
+        <v>0.10022154019549157</v>
       </c>
       <c r="B35">
-        <v>0.3375838640520451</v>
+        <v>0.74125404950221796</v>
       </c>
       <c r="C35">
-        <v>0.26617883890763883</v>
+        <v>0.48760377543392364</v>
       </c>
       <c r="D35">
-        <v>0.3353113307052461</v>
+        <v>0.45259254156932405</v>
       </c>
       <c r="E35">
-        <v>0.81614010287532268</v>
+        <v>0.81453977290065127</v>
       </c>
       <c r="F35">
-        <v>0.88535945093114177</v>
+        <v>0.62593762608049586</v>
       </c>
       <c r="G35">
-        <v>0.89589157379256823</v>
+        <v>4.4165571762661116E-2</v>
       </c>
       <c r="H35">
-        <v>0.73105082972374147</v>
+        <v>0.83672278174971748</v>
       </c>
       <c r="I35">
-        <v>0.64680966627278047</v>
+        <v>0.13872463607814456</v>
       </c>
       <c r="J35">
-        <v>0.40731842305681287</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0.71666974063914168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.81820403890767079</v>
+        <v>0.1781169538867664</v>
       </c>
       <c r="B36">
-        <v>0.60786590726294576</v>
+        <v>0.10481324197349962</v>
       </c>
       <c r="C36">
-        <v>0.79783026021159709</v>
+        <v>0.76895826405886913</v>
       </c>
       <c r="D36">
-        <v>0.29922502333310663</v>
+        <v>0.42264565322046244</v>
       </c>
       <c r="E36">
-        <v>0.31742786365584963</v>
+        <v>0.78907351493895828</v>
       </c>
       <c r="F36">
-        <v>0.8990048989061401</v>
+        <v>0.13786899241255823</v>
       </c>
       <c r="G36">
-        <v>0.099089649681814551</v>
+        <v>0.55729515580476185</v>
       </c>
       <c r="H36">
-        <v>0.13776289251951634</v>
+        <v>0.13860171574236002</v>
       </c>
       <c r="I36">
-        <v>0.30774558203094071</v>
+        <v>0.47557293379756294</v>
       </c>
       <c r="J36">
-        <v>0.27528695131569003</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0.28338438162893631</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.10022154019549157</v>
+        <v>0.35963491348208032</v>
       </c>
       <c r="B37">
-        <v>0.74125404950221796</v>
+        <v>0.12788837978299517</v>
       </c>
       <c r="C37">
-        <v>0.48760377543392364</v>
+        <v>0.39600674521787516</v>
       </c>
       <c r="D37">
-        <v>0.45259254156932405</v>
+        <v>0.35960631797223563</v>
       </c>
       <c r="E37">
-        <v>0.81453977290065127</v>
+        <v>0.85226389034384564</v>
       </c>
       <c r="F37">
-        <v>0.62593762608049586</v>
+        <v>0.2178015937121246</v>
       </c>
       <c r="G37">
-        <v>0.044165571762661116</v>
+        <v>0.77249506718762406</v>
       </c>
       <c r="H37">
-        <v>0.83672278174971748</v>
+        <v>0.58820938538949363</v>
       </c>
       <c r="I37">
-        <v>0.13872463607814456</v>
+        <v>0.36245928081874601</v>
       </c>
       <c r="J37">
-        <v>0.71666974063914168</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0.89619885684949541</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.1781169538867664</v>
+        <v>5.6704689068291181E-2</v>
       </c>
       <c r="B38">
-        <v>0.10481324197349962</v>
+        <v>0.54954010701519795</v>
       </c>
       <c r="C38">
-        <v>0.76895826405886913</v>
+        <v>0.2729387941236906</v>
       </c>
       <c r="D38">
-        <v>0.42264565322046244</v>
+        <v>0.55831919986929712</v>
       </c>
       <c r="E38">
-        <v>0.78907351493895828</v>
+        <v>0.50563661757175615</v>
       </c>
       <c r="F38">
-        <v>0.13786899241255823</v>
+        <v>0.18214107589043371</v>
       </c>
       <c r="G38">
-        <v>0.55729515580476185</v>
+        <v>0.31194005749626885</v>
       </c>
       <c r="H38">
-        <v>0.13860171574236002</v>
+        <v>0.36615680045493781</v>
       </c>
       <c r="I38">
-        <v>0.47557293379756294</v>
+        <v>0.78811342839854726</v>
       </c>
       <c r="J38">
-        <v>0.28338438162893631</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0.82657889231356019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.35963491348208032</v>
+        <v>0.52188567366127925</v>
       </c>
       <c r="B39">
-        <v>0.12788837978299517</v>
+        <v>0.48522940858495933</v>
       </c>
       <c r="C39">
-        <v>0.39600674521787516</v>
+        <v>3.723463407032801E-2</v>
       </c>
       <c r="D39">
-        <v>0.35960631797223563</v>
+        <v>0.74254536570193908</v>
       </c>
       <c r="E39">
-        <v>0.85226389034384564</v>
+        <v>0.63566138886137691</v>
       </c>
       <c r="F39">
-        <v>0.2178015937121246</v>
+        <v>4.1819863972954341E-2</v>
       </c>
       <c r="G39">
-        <v>0.77249506718762406</v>
+        <v>0.17898247931433509</v>
       </c>
       <c r="H39">
-        <v>0.58820938538949363</v>
+        <v>0.80675954466110567</v>
       </c>
       <c r="I39">
-        <v>0.36245928081874601</v>
+        <v>0.78029582084410964</v>
       </c>
       <c r="J39">
-        <v>0.89619885684949541</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0.39002651281399769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.056704689068291181</v>
+        <v>0.33584897467692454</v>
       </c>
       <c r="B40">
-        <v>0.54954010701519795</v>
+        <v>0.89047567918443826</v>
       </c>
       <c r="C40">
-        <v>0.2729387941236906</v>
+        <v>0.67329491410865316</v>
       </c>
       <c r="D40">
-        <v>0.55831919986929712</v>
+        <v>0.42433478362569066</v>
       </c>
       <c r="E40">
-        <v>0.50563661757175615</v>
+        <v>0.95089441537813524</v>
       </c>
       <c r="F40">
-        <v>0.18214107589043371</v>
+        <v>0.10694165855020699</v>
       </c>
       <c r="G40">
-        <v>0.31194005749626885</v>
+        <v>0.33895567824771822</v>
       </c>
       <c r="H40">
-        <v>0.36615680045493781</v>
+        <v>0.50378078577615593</v>
       </c>
       <c r="I40">
-        <v>0.78811342839854726</v>
+        <v>0.6685122142535449</v>
       </c>
       <c r="J40">
-        <v>0.82657889231356019</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0.49790294296418658</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.52188567366127925</v>
+        <v>0.17566902967566078</v>
       </c>
       <c r="B41">
-        <v>0.48522940858495933</v>
+        <v>0.79896027881287934</v>
       </c>
       <c r="C41">
-        <v>0.03723463407032801</v>
+        <v>0.42956445925185305</v>
       </c>
       <c r="D41">
-        <v>0.74254536570193908</v>
+        <v>0.42935578857620504</v>
       </c>
       <c r="E41">
-        <v>0.63566138886137691</v>
+        <v>0.44396415501881037</v>
       </c>
       <c r="F41">
-        <v>0.041819863972954341</v>
+        <v>0.61644348508568514</v>
       </c>
       <c r="G41">
-        <v>0.17898247931433509</v>
+        <v>0.21014563704355205</v>
       </c>
       <c r="H41">
-        <v>0.80675954466110567</v>
+        <v>0.48959433872335423</v>
       </c>
       <c r="I41">
-        <v>0.78029582084410964</v>
+        <v>0.13350385966131229</v>
       </c>
       <c r="J41">
-        <v>0.39002651281399769</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0.69480519267249385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.33584897467692454</v>
+        <v>0.20894667399313538</v>
       </c>
       <c r="B42">
-        <v>0.89047567918443826</v>
+        <v>0.73434108369596973</v>
       </c>
       <c r="C42">
-        <v>0.67329491410865316</v>
+        <v>0.45173923490473555</v>
       </c>
       <c r="D42">
-        <v>0.42433478362569066</v>
+        <v>0.12487275871981285</v>
       </c>
       <c r="E42">
-        <v>0.95089441537813524</v>
+        <v>6.0018819779475985E-2</v>
       </c>
       <c r="F42">
-        <v>0.10694165855020699</v>
+        <v>0.93966101016106673</v>
       </c>
       <c r="G42">
-        <v>0.33895567824771822</v>
+        <v>0.51015251976525022</v>
       </c>
       <c r="H42">
-        <v>0.50378078577615593</v>
+        <v>0.87704872338504392</v>
       </c>
       <c r="I42">
-        <v>0.6685122142535449</v>
+        <v>2.1555887203496993E-2</v>
       </c>
       <c r="J42">
-        <v>0.49790294296418658</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0.83436900109993772</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.17566902967566078</v>
+        <v>0.90515355900446404</v>
       </c>
       <c r="B43">
-        <v>0.79896027881287934</v>
+        <v>5.133188611237105E-2</v>
       </c>
       <c r="C43">
-        <v>0.42956445925185305</v>
+        <v>0.60985716929021605</v>
       </c>
       <c r="D43">
-        <v>0.42935578857620504</v>
+        <v>2.4434016050373986E-2</v>
       </c>
       <c r="E43">
-        <v>0.44396415501881037</v>
+        <v>0.8667498969993187</v>
       </c>
       <c r="F43">
-        <v>0.61644348508568514</v>
+        <v>0.35445573096732885</v>
       </c>
       <c r="G43">
-        <v>0.21014563704355205</v>
+        <v>0.90636432326521477</v>
       </c>
       <c r="H43">
-        <v>0.48959433872335423</v>
+        <v>0.35314181293895552</v>
       </c>
       <c r="I43">
-        <v>0.13350385966131229</v>
+        <v>0.55984070587250967</v>
       </c>
       <c r="J43">
-        <v>0.69480519267249385</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0.60962968967573239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.20894667399313538</v>
+        <v>0.67539117733624687</v>
       </c>
       <c r="B44">
-        <v>0.73434108369596973</v>
+        <v>7.288529909897612E-2</v>
       </c>
       <c r="C44">
-        <v>0.45173923490473555</v>
+        <v>5.9403296858277166E-2</v>
       </c>
       <c r="D44">
-        <v>0.12487275871981285</v>
+        <v>0.29018526513072718</v>
       </c>
       <c r="E44">
-        <v>0.060018819779475985</v>
+        <v>0.63118873426901123</v>
       </c>
       <c r="F44">
-        <v>0.93966101016106673</v>
+        <v>0.41062909005951398</v>
       </c>
       <c r="G44">
-        <v>0.51015251976525022</v>
+        <v>0.62892393865231788</v>
       </c>
       <c r="H44">
-        <v>0.87704872338504392</v>
+        <v>0.44944355657174828</v>
       </c>
       <c r="I44">
-        <v>0.021555887203496993</v>
+        <v>0.30081901806948907</v>
       </c>
       <c r="J44">
-        <v>0.83436900109993772</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0.57473716085640802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.90515355900446404</v>
+        <v>0.46846819990399735</v>
       </c>
       <c r="B45">
-        <v>0.05133188611237105</v>
+        <v>8.8527459674720421E-2</v>
       </c>
       <c r="C45">
-        <v>0.60985716929021605</v>
+        <v>0.31581143833886605</v>
       </c>
       <c r="D45">
-        <v>0.024434016050373986</v>
+        <v>0.31752058289922636</v>
       </c>
       <c r="E45">
-        <v>0.8667498969993187</v>
+        <v>0.35507365187884898</v>
       </c>
       <c r="F45">
-        <v>0.35445573096732885</v>
+        <v>0.98434941698445155</v>
       </c>
       <c r="G45">
-        <v>0.90636432326521477</v>
+        <v>0.10153388881231218</v>
       </c>
       <c r="H45">
-        <v>0.35314181293895552</v>
+        <v>0.9635302868434269</v>
       </c>
       <c r="I45">
-        <v>0.55984070587250967</v>
+        <v>0.93940971387345829</v>
       </c>
       <c r="J45">
-        <v>0.60962968967573239</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>0.32604217092279131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.67539117733624687</v>
+        <v>0.91213247423962285</v>
       </c>
       <c r="B46">
-        <v>0.07288529909897612</v>
+        <v>0.7983508641139524</v>
       </c>
       <c r="C46">
-        <v>0.059403296858277166</v>
+        <v>0.77272213086293473</v>
       </c>
       <c r="D46">
-        <v>0.29018526513072718</v>
+        <v>0.65369013396647513</v>
       </c>
       <c r="E46">
-        <v>0.63118873426901123</v>
+        <v>0.9970032716066477</v>
       </c>
       <c r="F46">
-        <v>0.41062909005951398</v>
+        <v>0.94557918903526261</v>
       </c>
       <c r="G46">
-        <v>0.62892393865231788</v>
+        <v>0.39085475272635462</v>
       </c>
       <c r="H46">
-        <v>0.44944355657174828</v>
+        <v>4.2297797914542801E-2</v>
       </c>
       <c r="I46">
-        <v>0.30081901806948907</v>
+        <v>0.98090363604685904</v>
       </c>
       <c r="J46">
-        <v>0.57473716085640802</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>0.45642460085174696</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.46846819990399735</v>
+        <v>0.1040115747793785</v>
       </c>
       <c r="B47">
-        <v>0.088527459674720421</v>
+        <v>0.94300813957070273</v>
       </c>
       <c r="C47">
-        <v>0.31581143833886605</v>
+        <v>0.69643298900609485</v>
       </c>
       <c r="D47">
-        <v>0.31752058289922636</v>
+        <v>0.95693592407068406</v>
       </c>
       <c r="E47">
-        <v>0.35507365187884898</v>
+        <v>0.22417149898312716</v>
       </c>
       <c r="F47">
-        <v>0.98434941698445155</v>
+        <v>0.67664467843353915</v>
       </c>
       <c r="G47">
-        <v>0.10153388881231218</v>
+        <v>5.4616615223657572E-2</v>
       </c>
       <c r="H47">
-        <v>0.9635302868434269</v>
+        <v>0.97295833414063471</v>
       </c>
       <c r="I47">
-        <v>0.93940971387345829</v>
+        <v>0.28662038889425934</v>
       </c>
       <c r="J47">
-        <v>0.32604217092279131</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0.71379558323313452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.91213247423962285</v>
+        <v>0.74554607370171733</v>
       </c>
       <c r="B48">
-        <v>0.7983508641139524</v>
+        <v>0.68371557240835812</v>
       </c>
       <c r="C48">
-        <v>0.77272213086293473</v>
+        <v>0.12533218110917999</v>
       </c>
       <c r="D48">
-        <v>0.65369013396647513</v>
+        <v>0.93573087278488043</v>
       </c>
       <c r="E48">
-        <v>0.9970032716066477</v>
+        <v>0.65245107296861493</v>
       </c>
       <c r="F48">
-        <v>0.94557918903526261</v>
+        <v>0.98830226231328622</v>
       </c>
       <c r="G48">
-        <v>0.39085475272635462</v>
+        <v>0.50128291320321527</v>
       </c>
       <c r="H48">
-        <v>0.042297797914542801</v>
+        <v>0.18920684312237601</v>
       </c>
       <c r="I48">
-        <v>0.98090363604685904</v>
+        <v>0.80082028695153462</v>
       </c>
       <c r="J48">
-        <v>0.45642460085174696</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>0.88440504527599495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.1040115747793785</v>
+        <v>0.73626745559663853</v>
       </c>
       <c r="B49">
-        <v>0.94300813957070273</v>
+        <v>0.13208295571356277</v>
       </c>
       <c r="C49">
-        <v>0.69643298900609485</v>
+        <v>0.13015145038942355</v>
       </c>
       <c r="D49">
-        <v>0.95693592407068406</v>
+        <v>0.45788633385436683</v>
       </c>
       <c r="E49">
-        <v>0.22417149898312716</v>
+        <v>0.60499064190825935</v>
       </c>
       <c r="F49">
-        <v>0.67664467843353915</v>
+        <v>0.76683138721659427</v>
       </c>
       <c r="G49">
-        <v>0.054616615223657572</v>
+        <v>0.43172117188424719</v>
       </c>
       <c r="H49">
-        <v>0.97295833414063471</v>
+        <v>0.66712030004007494</v>
       </c>
       <c r="I49">
-        <v>0.28662038889425934</v>
+        <v>0.89611135143260379</v>
       </c>
       <c r="J49">
-        <v>0.71379558323313452</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>0.72085567081693147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.74554607370171733</v>
+        <v>0.56186142528163741</v>
       </c>
       <c r="B50">
-        <v>0.68371557240835812</v>
+        <v>0.72272453965676586</v>
       </c>
       <c r="C50">
-        <v>0.12533218110917999</v>
+        <v>9.2352338719201565E-2</v>
       </c>
       <c r="D50">
-        <v>0.93573087278488043</v>
+        <v>0.24047839683208461</v>
       </c>
       <c r="E50">
-        <v>0.65245107296861493</v>
+        <v>0.38724543148313495</v>
       </c>
       <c r="F50">
-        <v>0.98830226231328622</v>
+        <v>0.33669926439147613</v>
       </c>
       <c r="G50">
-        <v>0.50128291320321527</v>
+        <v>0.99756034951218908</v>
       </c>
       <c r="H50">
-        <v>0.18920684312237601</v>
+        <v>0.58643961467891792</v>
       </c>
       <c r="I50">
-        <v>0.80082028695153462</v>
+        <v>0.59752657681782961</v>
       </c>
       <c r="J50">
-        <v>0.88440504527599495</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>1.8612774726386117E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.73626745559663853</v>
+        <v>0.18419409751552651</v>
       </c>
       <c r="B51">
-        <v>0.13208295571356277</v>
+        <v>0.11035348064234862</v>
       </c>
       <c r="C51">
-        <v>0.13015145038942355</v>
+        <v>7.8202935693348907E-3</v>
       </c>
       <c r="D51">
-        <v>0.45788633385436683</v>
+        <v>0.76389794428647828</v>
       </c>
       <c r="E51">
-        <v>0.60499064190825935</v>
+        <v>0.14218715929050407</v>
       </c>
       <c r="F51">
-        <v>0.76683138721659427</v>
+        <v>0.66238186039948121</v>
       </c>
       <c r="G51">
-        <v>0.43172117188424719</v>
+        <v>0.8116025809953229</v>
       </c>
       <c r="H51">
-        <v>0.66712030004007494</v>
+        <v>0.67511241640511532</v>
       </c>
       <c r="I51">
-        <v>0.89611135143260379</v>
+        <v>0.88401673572381978</v>
       </c>
       <c r="J51">
-        <v>0.72085567081693147</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0.67477646712828576</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.56186142528163741</v>
+        <v>0.59721135033785488</v>
       </c>
       <c r="B52">
-        <v>0.72272453965676586</v>
+        <v>0.11749285215183292</v>
       </c>
       <c r="C52">
-        <v>0.092352338719201565</v>
+        <v>0.42310938516416652</v>
       </c>
       <c r="D52">
-        <v>0.24047839683208461</v>
+        <v>0.75932738313109627</v>
       </c>
       <c r="E52">
-        <v>0.38724543148313495</v>
+        <v>2.5134985710203117E-2</v>
       </c>
       <c r="F52">
-        <v>0.33669926439147613</v>
+        <v>0.24416528679027927</v>
       </c>
       <c r="G52">
-        <v>0.99756034951218908</v>
+        <v>0.48565166989801767</v>
       </c>
       <c r="H52">
-        <v>0.58643961467891792</v>
+        <v>0.36102204919466085</v>
       </c>
       <c r="I52">
-        <v>0.59752657681782961</v>
+        <v>0.94373154119579139</v>
       </c>
       <c r="J52">
-        <v>0.018612774726386117</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>0.43850882423651283</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.18419409751552651</v>
+        <v>0.29993699008978891</v>
       </c>
       <c r="B53">
-        <v>0.11035348064234862</v>
+        <v>0.64071792296592556</v>
       </c>
       <c r="C53">
-        <v>0.0078202935693348907</v>
+        <v>0.65557317493791434</v>
       </c>
       <c r="D53">
-        <v>0.76389794428647828</v>
+        <v>0.74064806497861424</v>
       </c>
       <c r="E53">
-        <v>0.14218715929050407</v>
+        <v>0.42111225376524131</v>
       </c>
       <c r="F53">
-        <v>0.66238186039948121</v>
+        <v>0.29550725083159679</v>
       </c>
       <c r="G53">
-        <v>0.8116025809953229</v>
+        <v>0.8944477555673932</v>
       </c>
       <c r="H53">
-        <v>0.67511241640511532</v>
+        <v>0.62027842707108549</v>
       </c>
       <c r="I53">
-        <v>0.88401673572381978</v>
+        <v>0.54915808741990269</v>
       </c>
       <c r="J53">
-        <v>0.67477646712828576</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>0.43782017916627003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.59721135033785488</v>
+        <v>0.13412293282868237</v>
       </c>
       <c r="B54">
-        <v>0.11749285215183292</v>
+        <v>0.32881421475680273</v>
       </c>
       <c r="C54">
-        <v>0.42310938516416652</v>
+        <v>0.72292252469202434</v>
       </c>
       <c r="D54">
-        <v>0.75932738313109627</v>
+        <v>0.74368834148732599</v>
       </c>
       <c r="E54">
-        <v>0.025134985710203117</v>
+        <v>0.18410028942751122</v>
       </c>
       <c r="F54">
-        <v>0.24416528679027927</v>
+        <v>0.68017837123050207</v>
       </c>
       <c r="G54">
-        <v>0.48565166989801767</v>
+        <v>0.13754659476706477</v>
       </c>
       <c r="H54">
-        <v>0.36102204919466085</v>
+        <v>0.81115088510028521</v>
       </c>
       <c r="I54">
-        <v>0.94373154119579139</v>
+        <v>0.72838682459435666</v>
       </c>
       <c r="J54">
-        <v>0.43850882423651283</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>0.11703681950565781</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.29993699008978891</v>
+        <v>0.21260153335884291</v>
       </c>
       <c r="B55">
-        <v>0.64071792296592556</v>
+        <v>0.65381202259577365</v>
       </c>
       <c r="C55">
-        <v>0.65557317493791434</v>
+        <v>0.53120929358243874</v>
       </c>
       <c r="D55">
-        <v>0.74064806497861424</v>
+        <v>0.10592041673276531</v>
       </c>
       <c r="E55">
-        <v>0.42111225376524131</v>
+        <v>0.72577526746945309</v>
       </c>
       <c r="F55">
-        <v>0.29550725083159679</v>
+        <v>0.52784683041879787</v>
       </c>
       <c r="G55">
-        <v>0.8944477555673932</v>
+        <v>0.3900049144452854</v>
       </c>
       <c r="H55">
-        <v>0.62027842707108549</v>
+        <v>1.9257477414141411E-2</v>
       </c>
       <c r="I55">
-        <v>0.54915808741990269</v>
+        <v>0.57675829785800981</v>
       </c>
       <c r="J55">
-        <v>0.43782017916627003</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>0.81468168951858222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0.13412293282868237</v>
+        <v>0.89494167544081438</v>
       </c>
       <c r="B56">
-        <v>0.32881421475680273</v>
+        <v>0.74913146310351908</v>
       </c>
       <c r="C56">
-        <v>0.72292252469202434</v>
+        <v>0.10881793827304542</v>
       </c>
       <c r="D56">
-        <v>0.74368834148732599</v>
+        <v>0.68156043047031567</v>
       </c>
       <c r="E56">
-        <v>0.18410028942751122</v>
+        <v>0.3703626865151981</v>
       </c>
       <c r="F56">
-        <v>0.68017837123050207</v>
+        <v>0.41159351340753458</v>
       </c>
       <c r="G56">
-        <v>0.13754659476706477</v>
+        <v>0.92735622499812487</v>
       </c>
       <c r="H56">
-        <v>0.81115088510028521</v>
+        <v>8.3873508282899856E-2</v>
       </c>
       <c r="I56">
-        <v>0.72838682459435666</v>
+        <v>2.5857471083139627E-2</v>
       </c>
       <c r="J56">
-        <v>0.11703681950565781</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>0.32485543863050903</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.21260153335884291</v>
+        <v>7.1452812787044517E-2</v>
       </c>
       <c r="B57">
-        <v>0.65381202259577365</v>
+        <v>0.58318573145487618</v>
       </c>
       <c r="C57">
-        <v>0.53120929358243874</v>
+        <v>0.63176637352848886</v>
       </c>
       <c r="D57">
-        <v>0.10592041673276531</v>
+        <v>0.46326057859371916</v>
       </c>
       <c r="E57">
-        <v>0.72577526746945309</v>
+        <v>0.8415600874682061</v>
       </c>
       <c r="F57">
-        <v>0.52784683041879787</v>
+        <v>0.60263821803639717</v>
       </c>
       <c r="G57">
-        <v>0.3900049144452854</v>
+        <v>0.91749383241611693</v>
       </c>
       <c r="H57">
-        <v>0.019257477414141411</v>
+        <v>0.97480166718489036</v>
       </c>
       <c r="I57">
-        <v>0.57675829785800981</v>
+        <v>0.44653097828481436</v>
       </c>
       <c r="J57">
-        <v>0.81468168951858222</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>0.24622811423464142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.89494167544081438</v>
+        <v>0.24248655893671944</v>
       </c>
       <c r="B58">
-        <v>0.74913146310351908</v>
+        <v>0.74003232798777763</v>
       </c>
       <c r="C58">
-        <v>0.10881793827304542</v>
+        <v>0.12649986532930291</v>
       </c>
       <c r="D58">
-        <v>0.68156043047031567</v>
+        <v>0.21216320525493437</v>
       </c>
       <c r="E58">
-        <v>0.3703626865151981</v>
+        <v>0.73422969119331316</v>
       </c>
       <c r="F58">
-        <v>0.41159351340753458</v>
+        <v>0.75052005592373561</v>
       </c>
       <c r="G58">
-        <v>0.92735622499812487</v>
+        <v>0.71357401159431577</v>
       </c>
       <c r="H58">
-        <v>0.083873508282899856</v>
+        <v>0.65134953241535332</v>
       </c>
       <c r="I58">
-        <v>0.025857471083139627</v>
+        <v>0.64630195735065554</v>
       </c>
       <c r="J58">
-        <v>0.32485543863050903</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>0.34271322112327951</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.071452812787044517</v>
+        <v>5.3754392208713808E-2</v>
       </c>
       <c r="B59">
-        <v>0.58318573145487618</v>
+        <v>0.23482691474790429</v>
       </c>
       <c r="C59">
-        <v>0.63176637352848886</v>
+        <v>0.13430330431357462</v>
       </c>
       <c r="D59">
-        <v>0.46326057859371916</v>
+        <v>9.8518737688108371E-2</v>
       </c>
       <c r="E59">
-        <v>0.8415600874682061</v>
+        <v>0.57102587282437889</v>
       </c>
       <c r="F59">
-        <v>0.60263821803639717</v>
+        <v>0.58353317426195861</v>
       </c>
       <c r="G59">
-        <v>0.91749383241611693</v>
+        <v>0.61833738362194002</v>
       </c>
       <c r="H59">
-        <v>0.97480166718489036</v>
+        <v>0.23123781616435224</v>
       </c>
       <c r="I59">
-        <v>0.44653097828481436</v>
+        <v>0.52120295267241823</v>
       </c>
       <c r="J59">
-        <v>0.24622811423464142</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>0.37569214000958828</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.24248655893671944</v>
+        <v>0.44172205706442391</v>
       </c>
       <c r="B60">
-        <v>0.74003232798777763</v>
+        <v>0.73495754169605221</v>
       </c>
       <c r="C60">
-        <v>0.12649986532930291</v>
+        <v>9.8594092710997727E-2</v>
       </c>
       <c r="D60">
-        <v>0.21216320525493437</v>
+        <v>0.82357447392783856</v>
       </c>
       <c r="E60">
-        <v>0.73422969119331316</v>
+        <v>0.17685505762530274</v>
       </c>
       <c r="F60">
-        <v>0.75052005592373561</v>
+        <v>0.55179251493596748</v>
       </c>
       <c r="G60">
-        <v>0.71357401159431577</v>
+        <v>0.34328789024134543</v>
       </c>
       <c r="H60">
-        <v>0.65134953241535332</v>
+        <v>0.40349114312458989</v>
       </c>
       <c r="I60">
-        <v>0.64630195735065554</v>
+        <v>0.37231266077951208</v>
       </c>
       <c r="J60">
-        <v>0.34271322112327951</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>0.54655379308295893</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.053754392208713808</v>
+        <v>1.3283200467252509E-2</v>
       </c>
       <c r="B61">
-        <v>0.23482691474790429</v>
+        <v>0.97059852508661448</v>
       </c>
       <c r="C61">
-        <v>0.13430330431357462</v>
+        <v>0.14202724843192838</v>
       </c>
       <c r="D61">
-        <v>0.098518737688108371</v>
+        <v>0.17500973738207959</v>
       </c>
       <c r="E61">
-        <v>0.57102587282437889</v>
+        <v>0.95738402259572331</v>
       </c>
       <c r="F61">
-        <v>0.58353317426195861</v>
+        <v>0.58357061875771443</v>
       </c>
       <c r="G61">
-        <v>0.61833738362194002</v>
+        <v>0.93602732668976973</v>
       </c>
       <c r="H61">
-        <v>0.23123781616435224</v>
+        <v>0.12202051825212956</v>
       </c>
       <c r="I61">
-        <v>0.52120295267241823</v>
+        <v>0.93713466634156228</v>
       </c>
       <c r="J61">
-        <v>0.37569214000958828</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>0.56192015426597675</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.44172205706442391</v>
+        <v>0.89719135097357205</v>
       </c>
       <c r="B62">
-        <v>0.73495754169605221</v>
+        <v>0.86693029175191594</v>
       </c>
       <c r="C62">
-        <v>0.098594092710997727</v>
+        <v>0.16825129849152776</v>
       </c>
       <c r="D62">
-        <v>0.82357447392783856</v>
+        <v>0.16356990978499319</v>
       </c>
       <c r="E62">
-        <v>0.17685505762530274</v>
+        <v>0.26532203619292005</v>
       </c>
       <c r="F62">
-        <v>0.55179251493596748</v>
+        <v>0.5118199199584752</v>
       </c>
       <c r="G62">
-        <v>0.34328789024134543</v>
+        <v>0.12477404066049258</v>
       </c>
       <c r="H62">
-        <v>0.40349114312458989</v>
+        <v>0.26843882139728314</v>
       </c>
       <c r="I62">
-        <v>0.37231266077951208</v>
+        <v>0.82953282452651489</v>
       </c>
       <c r="J62">
-        <v>0.54655379308295893</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>0.39582222862400096</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.013283200467252509</v>
+        <v>0.19665819136763196</v>
       </c>
       <c r="B63">
-        <v>0.97059852508661448</v>
+        <v>8.6234529863496334E-2</v>
       </c>
       <c r="C63">
-        <v>0.14202724843192838</v>
+        <v>0.19624892225695534</v>
       </c>
       <c r="D63">
-        <v>0.17500973738207959</v>
+        <v>0.66598721641111058</v>
       </c>
       <c r="E63">
-        <v>0.95738402259572331</v>
+        <v>0.92458089523960096</v>
       </c>
       <c r="F63">
-        <v>0.58357061875771443</v>
+        <v>8.2592726998699351E-2</v>
       </c>
       <c r="G63">
-        <v>0.93602732668976973</v>
+        <v>0.73058536150570708</v>
       </c>
       <c r="H63">
-        <v>0.12202051825212956</v>
+        <v>0.25784617011260469</v>
       </c>
       <c r="I63">
-        <v>0.93713466634156228</v>
+        <v>0.84908547995445516</v>
       </c>
       <c r="J63">
-        <v>0.56192015426597675</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>0.39813087953133586</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.89719135097357205</v>
+        <v>9.3370516755093003E-2</v>
       </c>
       <c r="B64">
-        <v>0.86693029175191594</v>
+        <v>0.36643661631919888</v>
       </c>
       <c r="C64">
-        <v>0.16825129849152776</v>
+        <v>0.31747977514943537</v>
       </c>
       <c r="D64">
-        <v>0.16356990978499319</v>
+        <v>0.89438937535424279</v>
       </c>
       <c r="E64">
-        <v>0.26532203619292005</v>
+        <v>0.22377040469704101</v>
       </c>
       <c r="F64">
-        <v>0.5118199199584752</v>
+        <v>0.71957013485948973</v>
       </c>
       <c r="G64">
-        <v>0.12477404066049258</v>
+        <v>0.64647743242581379</v>
       </c>
       <c r="H64">
-        <v>0.26843882139728314</v>
+        <v>0.33166523874262932</v>
       </c>
       <c r="I64">
-        <v>0.82953282452651489</v>
+        <v>0.37253423989953949</v>
       </c>
       <c r="J64">
-        <v>0.39582222862400096</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>0.51536721921157236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.19665819136763196</v>
+        <v>0.30736689958792007</v>
       </c>
       <c r="B65">
-        <v>0.086234529863496334</v>
+        <v>0.36919880433001817</v>
       </c>
       <c r="C65">
-        <v>0.19624892225695534</v>
+        <v>0.31642899914629097</v>
       </c>
       <c r="D65">
-        <v>0.66598721641111058</v>
+        <v>0.51655820835127042</v>
       </c>
       <c r="E65">
-        <v>0.92458089523960096</v>
+        <v>0.37356380764264496</v>
       </c>
       <c r="F65">
-        <v>0.082592726998699351</v>
+        <v>0.99615611129686943</v>
       </c>
       <c r="G65">
-        <v>0.73058536150570708</v>
+        <v>0.83315198566929505</v>
       </c>
       <c r="H65">
-        <v>0.25784617011260469</v>
+        <v>0.15223401286294647</v>
       </c>
       <c r="I65">
-        <v>0.84908547995445516</v>
+        <v>0.59318457521849033</v>
       </c>
       <c r="J65">
-        <v>0.39813087953133586</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>0.657530542095911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.093370516755093003</v>
+        <v>0.45605766684374149</v>
       </c>
       <c r="B66">
-        <v>0.36643661631919888</v>
+        <v>0.68502847266160927</v>
       </c>
       <c r="C66">
-        <v>0.31747977514943537</v>
+        <v>0.21756330942282065</v>
       </c>
       <c r="D66">
-        <v>0.89438937535424279</v>
+        <v>0.70270230695047531</v>
       </c>
       <c r="E66">
-        <v>0.22377040469704101</v>
+        <v>8.7500349576585701E-2</v>
       </c>
       <c r="F66">
-        <v>0.71957013485948973</v>
+        <v>0.35453430495692184</v>
       </c>
       <c r="G66">
-        <v>0.64647743242581379</v>
+        <v>0.39828222821877546</v>
       </c>
       <c r="H66">
-        <v>0.33166523874262932</v>
+        <v>0.34800765971611347</v>
       </c>
       <c r="I66">
-        <v>0.37253423989953949</v>
+        <v>0.87255256464755859</v>
       </c>
       <c r="J66">
-        <v>0.51536721921157236</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0.95091519826495918</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.30736689958792007</v>
+        <v>0.10166939362475513</v>
       </c>
       <c r="B67">
-        <v>0.36919880433001817</v>
+        <v>0.59794163538388911</v>
       </c>
       <c r="C67">
-        <v>0.31642899914629097</v>
+        <v>0.25104184601573609</v>
       </c>
       <c r="D67">
-        <v>0.51655820835127042</v>
+        <v>0.15359037661940023</v>
       </c>
       <c r="E67">
-        <v>0.37356380764264496</v>
+        <v>0.64011654824671504</v>
       </c>
       <c r="F67">
-        <v>0.99615611129686943</v>
+        <v>0.97125881518340573</v>
       </c>
       <c r="G67">
-        <v>0.83315198566929505</v>
+        <v>0.74982220936063593</v>
       </c>
       <c r="H67">
-        <v>0.15223401286294647</v>
+        <v>0.12165845430772615</v>
       </c>
       <c r="I67">
-        <v>0.59318457521849033</v>
+        <v>0.93350160850710528</v>
       </c>
       <c r="J67">
-        <v>0.657530542095911</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>0.72234851432749791</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.45605766684374149</v>
+        <v>0.99538972765509171</v>
       </c>
       <c r="B68">
-        <v>0.68502847266160927</v>
+        <v>0.78936394364190543</v>
       </c>
       <c r="C68">
-        <v>0.21756330942282065</v>
+        <v>0.89292240528597699</v>
       </c>
       <c r="D68">
-        <v>0.70270230695047531</v>
+        <v>0.95345706988624768</v>
       </c>
       <c r="E68">
-        <v>0.087500349576585701</v>
+        <v>0.18061688775310836</v>
       </c>
       <c r="F68">
-        <v>0.35453430495692184</v>
+        <v>0.34644876130035962</v>
       </c>
       <c r="G68">
-        <v>0.39828222821877546</v>
+        <v>0.83522051047813051</v>
       </c>
       <c r="H68">
-        <v>0.34800765971611347</v>
+        <v>0.88415305774966013</v>
       </c>
       <c r="I68">
-        <v>0.87255256464755859</v>
+        <v>0.66846427436137557</v>
       </c>
       <c r="J68">
-        <v>0.95091519826495918</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>0.10166939362475513</v>
-      </c>
-      <c r="B69">
-        <v>0.59794163538388911</v>
-      </c>
-      <c r="C69">
-        <v>0.25104184601573609</v>
-      </c>
-      <c r="D69">
-        <v>0.15359037661940023</v>
-      </c>
-      <c r="E69">
-        <v>0.64011654824671504</v>
-      </c>
-      <c r="F69">
-        <v>0.97125881518340573</v>
-      </c>
-      <c r="G69">
-        <v>0.74982220936063593</v>
-      </c>
-      <c r="H69">
-        <v>0.12165845430772615</v>
-      </c>
-      <c r="I69">
-        <v>0.93350160850710528</v>
-      </c>
-      <c r="J69">
-        <v>0.72234851432749791</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>0.99538972765509171</v>
-      </c>
-      <c r="B70">
-        <v>0.78936394364190543</v>
-      </c>
-      <c r="C70">
-        <v>0.89292240528597699</v>
-      </c>
-      <c r="D70">
-        <v>0.95345706988624768</v>
-      </c>
-      <c r="E70">
-        <v>0.18061688775310836</v>
-      </c>
-      <c r="F70">
-        <v>0.34644876130035962</v>
-      </c>
-      <c r="G70">
-        <v>0.83522051047813051</v>
-      </c>
-      <c r="H70">
-        <v>0.88415305774966013</v>
-      </c>
-      <c r="I70">
-        <v>0.66846427436137557</v>
-      </c>
-      <c r="J70">
         <v>0.40007974536233759</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>